--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>18.92270615303045</v>
+        <v>41.89646109714401</v>
       </c>
       <c r="R2">
-        <v>170.304355377274</v>
+        <v>377.068149874296</v>
       </c>
       <c r="S2">
-        <v>0.0079963013825783</v>
+        <v>0.01377112154277121</v>
       </c>
       <c r="T2">
-        <v>0.0079963013825783</v>
+        <v>0.01377112154277121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>11.284166148611</v>
+        <v>16.423724035809</v>
       </c>
       <c r="R3">
-        <v>101.557495337499</v>
+        <v>147.813516322281</v>
       </c>
       <c r="S3">
-        <v>0.004768429665697203</v>
+        <v>0.005398381962563335</v>
       </c>
       <c r="T3">
-        <v>0.004768429665697203</v>
+        <v>0.005398381962563335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>4.07823392618389</v>
+        <v>6.638671669689001</v>
       </c>
       <c r="R4">
-        <v>36.704105335655</v>
+        <v>59.748045027201</v>
       </c>
       <c r="S4">
-        <v>0.001723368070015683</v>
+        <v>0.002182092521701581</v>
       </c>
       <c r="T4">
-        <v>0.001723368070015683</v>
+        <v>0.00218209252170158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>11.76303404535233</v>
+        <v>17.411475047252</v>
       </c>
       <c r="R5">
-        <v>105.867306408171</v>
+        <v>156.703275425268</v>
       </c>
       <c r="S5">
-        <v>0.004970788249813982</v>
+        <v>0.005723049938720968</v>
       </c>
       <c r="T5">
-        <v>0.004970788249813982</v>
+        <v>0.005723049938720967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>710.3176598606525</v>
+        <v>1080.549185949817</v>
       </c>
       <c r="R6">
-        <v>6392.858938745872</v>
+        <v>9724.942673548352</v>
       </c>
       <c r="S6">
-        <v>0.3001639427087911</v>
+        <v>0.3551701929705892</v>
       </c>
       <c r="T6">
-        <v>0.3001639427087911</v>
+        <v>0.3551701929705892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
         <v>423.583309244408</v>
@@ -883,10 +883,10 @@
         <v>3812.249783199672</v>
       </c>
       <c r="S7">
-        <v>0.1789965861096307</v>
+        <v>0.1392293545168097</v>
       </c>
       <c r="T7">
-        <v>0.1789965861096307</v>
+        <v>0.1392293545168097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>153.0881236216489</v>
+        <v>171.217594054968</v>
       </c>
       <c r="R8">
-        <v>1377.79311259484</v>
+        <v>1540.958346494712</v>
       </c>
       <c r="S8">
-        <v>0.06469152798084671</v>
+        <v>0.0562782210298081</v>
       </c>
       <c r="T8">
-        <v>0.06469152798084669</v>
+        <v>0.05627822102980808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>441.5589793755653</v>
+        <v>449.0583380030685</v>
       </c>
       <c r="R9">
-        <v>3974.030814380088</v>
+        <v>4041.525042027616</v>
       </c>
       <c r="S9">
-        <v>0.1865926918019196</v>
+        <v>0.1476028473645151</v>
       </c>
       <c r="T9">
-        <v>0.1865926918019196</v>
+        <v>0.1476028473645151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>197.5480653808245</v>
+        <v>387.6546275226552</v>
       </c>
       <c r="R10">
-        <v>1777.93258842742</v>
+        <v>3488.891647703897</v>
       </c>
       <c r="S10">
-        <v>0.08347927910286637</v>
+        <v>0.1274198071253349</v>
       </c>
       <c r="T10">
-        <v>0.08347927910286637</v>
+        <v>0.1274198071253349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>117.80372078213</v>
+        <v>151.963494216709</v>
       </c>
       <c r="R11">
-        <v>1060.23348703917</v>
+        <v>1367.671447950381</v>
       </c>
       <c r="S11">
-        <v>0.04978114904628243</v>
+        <v>0.04994951110716045</v>
       </c>
       <c r="T11">
-        <v>0.04978114904628243</v>
+        <v>0.04994951110716044</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>42.5756874187389</v>
+        <v>61.42551723858901</v>
       </c>
       <c r="R12">
-        <v>383.18118676865</v>
+        <v>552.8296551473011</v>
       </c>
       <c r="S12">
-        <v>0.01799150847756314</v>
+        <v>0.02019020799295769</v>
       </c>
       <c r="T12">
-        <v>0.01799150847756313</v>
+        <v>0.02019020799295768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>122.8029754241033</v>
+        <v>161.1028401280076</v>
       </c>
       <c r="R13">
-        <v>1105.22677881693</v>
+        <v>1449.925561152068</v>
       </c>
       <c r="S13">
-        <v>0.05189371933523502</v>
+        <v>0.05295356061564032</v>
       </c>
       <c r="T13">
-        <v>0.05189371933523502</v>
+        <v>0.05295356061564031</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N14">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O14">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P14">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q14">
-        <v>45.65700163916267</v>
+        <v>37.34234573769778</v>
       </c>
       <c r="R14">
-        <v>410.913014752464</v>
+        <v>336.08111163928</v>
       </c>
       <c r="S14">
-        <v>0.01929360115720805</v>
+        <v>0.01227421047934465</v>
       </c>
       <c r="T14">
-        <v>0.01929360115720805</v>
+        <v>0.01227421047934465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q15">
-        <v>27.226612735896</v>
+        <v>14.63847697837</v>
       </c>
       <c r="R15">
-        <v>245.039514623064</v>
+        <v>131.74629280533</v>
       </c>
       <c r="S15">
-        <v>0.01150534174669847</v>
+        <v>0.004811581703828761</v>
       </c>
       <c r="T15">
-        <v>0.01150534174669847</v>
+        <v>0.004811581703828761</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N16">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O16">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P16">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q16">
-        <v>9.840026661453335</v>
+        <v>5.91705280677</v>
       </c>
       <c r="R16">
-        <v>88.56023995308</v>
+        <v>53.25347526093</v>
       </c>
       <c r="S16">
-        <v>0.004158169458493945</v>
+        <v>0.001944900625093126</v>
       </c>
       <c r="T16">
-        <v>0.004158169458493944</v>
+        <v>0.001944900625093126</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N17">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q17">
-        <v>28.382032693784</v>
+        <v>15.51886016124889</v>
       </c>
       <c r="R17">
-        <v>255.438294244056</v>
+        <v>139.66974145124</v>
       </c>
       <c r="S17">
-        <v>0.01199359570635945</v>
+        <v>0.005100958503160946</v>
       </c>
       <c r="T17">
-        <v>0.01199359570635945</v>
+        <v>0.005100958503160946</v>
       </c>
     </row>
   </sheetData>
